--- a/Coastal_Rivers_Study/CoastalRivers_SampleInventory.xlsx
+++ b/Coastal_Rivers_Study/CoastalRivers_SampleInventory.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikaylaborton/Documents/GitHub/Genome Resolved Open Watersheds database (GROWdb)/Genome-Resolved-Open-Watersheads-database-GROWdb/Coastal_Rivers_Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A33A56-5502-6446-B31D-A3D8C0AB3C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F17D59-D69E-D14D-9790-C4E5C66D6848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="2860" windowWidth="26840" windowHeight="15940" xr2:uid="{0A89914C-1D85-E447-86D8-7F165AADA273}"/>
+    <workbookView xWindow="3540" yWindow="2240" windowWidth="37820" windowHeight="23140" xr2:uid="{0A89914C-1D85-E447-86D8-7F165AADA273}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Sample</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>JGI Accession</t>
+  </si>
+  <si>
+    <t>needs qc</t>
   </si>
 </sst>
 </file>
@@ -557,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F49866-88D5-5444-AD95-3B0213C3D87F}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,7 +602,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -610,7 +616,10 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -621,7 +630,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -632,7 +644,10 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -643,7 +658,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -709,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -720,7 +735,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -753,7 +768,7 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">

--- a/Coastal_Rivers_Study/CoastalRivers_SampleInventory.xlsx
+++ b/Coastal_Rivers_Study/CoastalRivers_SampleInventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikaylaborton/Documents/GitHub/Genome Resolved Open Watersheds database (GROWdb)/Genome-Resolved-Open-Watersheads-database-GROWdb/Coastal_Rivers_Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F17D59-D69E-D14D-9790-C4E5C66D6848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21DD827-4BF5-334A-8209-60038D75A06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="2240" windowWidth="37820" windowHeight="23140" xr2:uid="{0A89914C-1D85-E447-86D8-7F165AADA273}"/>
   </bookViews>
